--- a/Code/Results/Cases/Case_3_167/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_167/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9234032968008421</v>
+        <v>0.619485959373236</v>
       </c>
       <c r="C2">
-        <v>0.09402449169836302</v>
+        <v>0.09069855557737583</v>
       </c>
       <c r="D2">
-        <v>0.08849876193556128</v>
+        <v>0.1491654049089064</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8094685938808936</v>
+        <v>1.801598618548695</v>
       </c>
       <c r="G2">
-        <v>0.0008259631633964376</v>
+        <v>0.002500563224173716</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4798718301569131</v>
+        <v>1.153023016269959</v>
       </c>
       <c r="J2">
-        <v>0.07684467867053257</v>
+        <v>0.2083061825638381</v>
       </c>
       <c r="K2">
-        <v>0.8077115899424712</v>
+        <v>0.3528051124800982</v>
       </c>
       <c r="L2">
-        <v>0.1940691396647765</v>
+        <v>0.3524188657653013</v>
       </c>
       <c r="M2">
-        <v>0.2146600016731952</v>
+        <v>0.2211188423881261</v>
       </c>
       <c r="N2">
-        <v>1.071535195588704</v>
+        <v>2.276347613085551</v>
       </c>
       <c r="O2">
-        <v>2.030368594479029</v>
+        <v>4.609819826082216</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8059810212442642</v>
+        <v>0.5876922403889466</v>
       </c>
       <c r="C3">
-        <v>0.08845124465666032</v>
+        <v>0.0887583739399318</v>
       </c>
       <c r="D3">
-        <v>0.08108769787779835</v>
+        <v>0.1477950874944653</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7973443789023307</v>
+        <v>1.808779613223273</v>
       </c>
       <c r="G3">
-        <v>0.0008292531724368891</v>
+        <v>0.002502796250086051</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4843828854337566</v>
+        <v>1.160547714366068</v>
       </c>
       <c r="J3">
-        <v>0.07836564230735377</v>
+        <v>0.2094651149657025</v>
       </c>
       <c r="K3">
-        <v>0.7021365302749132</v>
+        <v>0.3223325274280882</v>
       </c>
       <c r="L3">
-        <v>0.1802175673354185</v>
+        <v>0.35037708125531</v>
       </c>
       <c r="M3">
-        <v>0.1901111975456509</v>
+        <v>0.2151671942734552</v>
       </c>
       <c r="N3">
-        <v>1.11505752474278</v>
+        <v>2.295683721917147</v>
       </c>
       <c r="O3">
-        <v>2.020215354061548</v>
+        <v>4.634161229765127</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7341137515051344</v>
+        <v>0.5683709396231222</v>
       </c>
       <c r="C4">
-        <v>0.08501883854892611</v>
+        <v>0.08755136306289302</v>
       </c>
       <c r="D4">
-        <v>0.07659314992839938</v>
+        <v>0.1470035556509188</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7910383249332043</v>
+        <v>1.813906038728213</v>
       </c>
       <c r="G4">
-        <v>0.0008313453570882877</v>
+        <v>0.002504242168618801</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4878405374798369</v>
+        <v>1.165595371170586</v>
       </c>
       <c r="J4">
-        <v>0.07936199523016008</v>
+        <v>0.2102231605698091</v>
       </c>
       <c r="K4">
-        <v>0.6374025276924442</v>
+        <v>0.3036897731737866</v>
       </c>
       <c r="L4">
-        <v>0.1718736192492614</v>
+        <v>0.3492482129446373</v>
       </c>
       <c r="M4">
-        <v>0.1751383702011324</v>
+        <v>0.2115946288077915</v>
       </c>
       <c r="N4">
-        <v>1.14287080095446</v>
+        <v>2.308163128610709</v>
       </c>
       <c r="O4">
-        <v>2.017049412639963</v>
+        <v>4.650971166881789</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7048767580504887</v>
+        <v>0.5605483650709573</v>
       </c>
       <c r="C5">
-        <v>0.08361705105652106</v>
+        <v>0.08705555395837905</v>
       </c>
       <c r="D5">
-        <v>0.0747750352413874</v>
+        <v>0.1466936029045627</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7887454852699705</v>
+        <v>1.816175730158925</v>
       </c>
       <c r="G5">
-        <v>0.0008322163105193003</v>
+        <v>0.002504850263501684</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4894177687724977</v>
+        <v>1.167759940809368</v>
       </c>
       <c r="J5">
-        <v>0.07978354967114143</v>
+        <v>0.2105437733832449</v>
       </c>
       <c r="K5">
-        <v>0.6110379469626395</v>
+        <v>0.2961102080454054</v>
       </c>
       <c r="L5">
-        <v>0.16851212814327</v>
+        <v>0.3488196942886432</v>
       </c>
       <c r="M5">
-        <v>0.1690599572277058</v>
+        <v>0.2101594984335122</v>
       </c>
       <c r="N5">
-        <v>1.154474365344752</v>
+        <v>2.313401299059919</v>
       </c>
       <c r="O5">
-        <v>2.016505762546899</v>
+        <v>4.658290658340931</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7000247284993293</v>
+        <v>0.5592525334811</v>
       </c>
       <c r="C6">
-        <v>0.08338408858862323</v>
+        <v>0.08697298751869198</v>
       </c>
       <c r="D6">
-        <v>0.07447393401159275</v>
+        <v>0.1466428986729795</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7883812223816946</v>
+        <v>1.816563528299369</v>
       </c>
       <c r="G6">
-        <v>0.0008323620481268896</v>
+        <v>0.002504952378466118</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4896896910051218</v>
+        <v>1.168125868763269</v>
       </c>
       <c r="J6">
-        <v>0.07985448153451635</v>
+        <v>0.2105977183587164</v>
       </c>
       <c r="K6">
-        <v>0.6066608268834841</v>
+        <v>0.2948526999811492</v>
       </c>
       <c r="L6">
-        <v>0.1679562451833618</v>
+        <v>0.3487504455074131</v>
       </c>
       <c r="M6">
-        <v>0.1680519801443729</v>
+        <v>0.2099224521309146</v>
       </c>
       <c r="N6">
-        <v>1.156417265871579</v>
+        <v>2.314280319209606</v>
       </c>
       <c r="O6">
-        <v>2.016459864972759</v>
+        <v>4.659534414916635</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7337192616172956</v>
+        <v>0.5682652342013625</v>
       </c>
       <c r="C7">
-        <v>0.08499994647704057</v>
+        <v>0.08754469235300633</v>
       </c>
       <c r="D7">
-        <v>0.07656857651238624</v>
+        <v>0.1469993244001486</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7910062936199793</v>
+        <v>1.813935916853282</v>
       </c>
       <c r="G7">
-        <v>0.0008313570284085468</v>
+        <v>0.002504250293364629</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4878611336334302</v>
+        <v>1.165624127451775</v>
       </c>
       <c r="J7">
-        <v>0.07936761779907897</v>
+        <v>0.2102274370527972</v>
       </c>
       <c r="K7">
-        <v>0.6370469143744515</v>
+        <v>0.303587480918992</v>
       </c>
       <c r="L7">
-        <v>0.1718281304119671</v>
+        <v>0.3492423060680494</v>
       </c>
       <c r="M7">
-        <v>0.1750563035851798</v>
+        <v>0.2115751900384168</v>
       </c>
       <c r="N7">
-        <v>1.14302620590915</v>
+        <v>2.308233153972836</v>
       </c>
       <c r="O7">
-        <v>2.017039090529721</v>
+        <v>4.651067979194977</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8828630042526129</v>
+        <v>0.6084823353615718</v>
       </c>
       <c r="C8">
-        <v>0.09210472430514471</v>
+        <v>0.09003285358934932</v>
       </c>
       <c r="D8">
-        <v>0.0859314581744286</v>
+        <v>0.1486826135361383</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8050461950441345</v>
+        <v>1.803925916738237</v>
       </c>
       <c r="G8">
-        <v>0.0008270827400755733</v>
+        <v>0.002501317672915834</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4812815565852766</v>
+        <v>1.15552888422603</v>
       </c>
       <c r="J8">
-        <v>0.07735603159667015</v>
+        <v>0.2086961532299636</v>
       </c>
       <c r="K8">
-        <v>0.7712860930254521</v>
+        <v>0.3422844540802146</v>
       </c>
       <c r="L8">
-        <v>0.1892586301233337</v>
+        <v>0.3516890299078952</v>
       </c>
       <c r="M8">
-        <v>0.2061734855385602</v>
+        <v>0.2190498347038528</v>
       </c>
       <c r="N8">
-        <v>1.086312465800097</v>
+        <v>2.282888783074839</v>
       </c>
       <c r="O8">
-        <v>2.026215551718238</v>
+        <v>4.617826140831298</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.177578750954439</v>
+        <v>0.6889106853717522</v>
       </c>
       <c r="C9">
-        <v>0.1059762188261288</v>
+        <v>0.09478691498058822</v>
       </c>
       <c r="D9">
-        <v>0.1047647372617604</v>
+        <v>0.1523763472453226</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8420511137858995</v>
+        <v>1.789976499123846</v>
       </c>
       <c r="G9">
-        <v>0.0008192616491066563</v>
+        <v>0.00249615809243882</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4740610934677072</v>
+        <v>1.139118698466724</v>
       </c>
       <c r="J9">
-        <v>0.07391528349941723</v>
+        <v>0.206060957546061</v>
       </c>
       <c r="K9">
-        <v>1.035606852463559</v>
+        <v>0.4186856442145199</v>
       </c>
       <c r="L9">
-        <v>0.2248012877373071</v>
+        <v>0.3574723452828721</v>
       </c>
       <c r="M9">
-        <v>0.2680908260172963</v>
+        <v>0.2343503896424295</v>
       </c>
       <c r="N9">
-        <v>0.9839697567715545</v>
+        <v>2.237999878492863</v>
       </c>
       <c r="O9">
-        <v>2.069740769762404</v>
+        <v>4.567408758084923</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.396106763945653</v>
+        <v>0.7489260113912337</v>
       </c>
       <c r="C10">
-        <v>0.1161635416791711</v>
+        <v>0.09820315327866069</v>
       </c>
       <c r="D10">
-        <v>0.1189338699782923</v>
+        <v>0.155326349873647</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8756598001180294</v>
+        <v>1.783177012834152</v>
       </c>
       <c r="G10">
-        <v>0.0008138407670793878</v>
+        <v>0.002492724341353378</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4725471192406125</v>
+        <v>1.12911987915718</v>
       </c>
       <c r="J10">
-        <v>0.07170646413208637</v>
+        <v>0.2043476653991672</v>
       </c>
       <c r="K10">
-        <v>1.231019184141815</v>
+        <v>0.4751121020126448</v>
       </c>
       <c r="L10">
-        <v>0.2518700461828445</v>
+        <v>0.362316196603544</v>
       </c>
       <c r="M10">
-        <v>0.3142807758508468</v>
+        <v>0.245976808205171</v>
       </c>
       <c r="N10">
-        <v>0.9145048112234868</v>
+        <v>2.207945725375679</v>
       </c>
       <c r="O10">
-        <v>2.119017670413882</v>
+        <v>4.539343779647453</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.496105115570515</v>
+        <v>0.7764237197652335</v>
       </c>
       <c r="C11">
-        <v>0.120805135621957</v>
+        <v>0.09974062824685603</v>
       </c>
       <c r="D11">
-        <v>0.1254623170543994</v>
+        <v>0.1567190096524484</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8924950898995547</v>
+        <v>1.780829903873538</v>
       </c>
       <c r="G11">
-        <v>0.000811441469804518</v>
+        <v>0.002491239020161141</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.472758080905173</v>
+        <v>1.125016564222634</v>
       </c>
       <c r="J11">
-        <v>0.07077366271278684</v>
+        <v>0.20361633589728</v>
       </c>
       <c r="K11">
-        <v>1.320314231648013</v>
+        <v>0.5008419014133949</v>
       </c>
       <c r="L11">
-        <v>0.2644213648504206</v>
+        <v>0.3646477705708406</v>
       </c>
       <c r="M11">
-        <v>0.3354817508525443</v>
+        <v>0.2513482301929386</v>
       </c>
       <c r="N11">
-        <v>0.8842210142887637</v>
+        <v>2.194907027728824</v>
       </c>
       <c r="O11">
-        <v>2.145598569291025</v>
+        <v>4.528519889103137</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.534069428316911</v>
+        <v>0.7868640227364949</v>
       </c>
       <c r="C12">
-        <v>0.1225645430856162</v>
+        <v>0.1003204344352042</v>
       </c>
       <c r="D12">
-        <v>0.1279472652896629</v>
+        <v>0.1572535986579737</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8991059123397918</v>
+        <v>1.780048142751909</v>
       </c>
       <c r="G12">
-        <v>0.0008105421816463015</v>
+        <v>0.002490687542815861</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4729741195931823</v>
+        <v>1.123526652306893</v>
       </c>
       <c r="J12">
-        <v>0.07043103537124296</v>
+        <v>0.2033462893813933</v>
       </c>
       <c r="K12">
-        <v>1.35419702888268</v>
+        <v>0.5105934298878765</v>
       </c>
       <c r="L12">
-        <v>0.2692109447138762</v>
+        <v>0.365548980140602</v>
       </c>
       <c r="M12">
-        <v>0.343540283784094</v>
+        <v>0.2533939691506291</v>
       </c>
       <c r="N12">
-        <v>0.872949318786126</v>
+        <v>2.190060565111287</v>
       </c>
       <c r="O12">
-        <v>2.156298953668255</v>
+        <v>4.524700084490632</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.525888608718731</v>
+        <v>0.7846143044602059</v>
       </c>
       <c r="C13">
-        <v>0.1221855345227638</v>
+        <v>0.1001956699056024</v>
       </c>
       <c r="D13">
-        <v>0.1274115052548126</v>
+        <v>0.1571381453995997</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.8976714523250138</v>
+        <v>1.780211752228567</v>
       </c>
       <c r="G13">
-        <v>0.0008107354522323507</v>
+        <v>0.002490805825757518</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4729214241215942</v>
+        <v>1.123844689942949</v>
       </c>
       <c r="J13">
-        <v>0.0705043505352787</v>
+        <v>0.2034041424919781</v>
       </c>
       <c r="K13">
-        <v>1.346896523017136</v>
+        <v>0.508492907727117</v>
       </c>
       <c r="L13">
-        <v>0.2681777507282845</v>
+        <v>0.3653540769326753</v>
       </c>
       <c r="M13">
-        <v>0.3418033420132431</v>
+        <v>0.2529528650380186</v>
       </c>
       <c r="N13">
-        <v>0.8753680440222991</v>
+        <v>2.191100290309709</v>
       </c>
       <c r="O13">
-        <v>2.153965607305281</v>
+        <v>4.525510347501069</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.499226442136774</v>
+        <v>0.7772821024611289</v>
       </c>
       <c r="C14">
-        <v>0.120949844226125</v>
+        <v>0.09978837749257963</v>
       </c>
       <c r="D14">
-        <v>0.1256664942943218</v>
+        <v>0.1567628463339616</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.8930341643129367</v>
+        <v>1.78076344407215</v>
       </c>
       <c r="G14">
-        <v>0.0008113673007715671</v>
+        <v>0.002491193430079737</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4727730855765344</v>
+        <v>1.124892707672771</v>
       </c>
       <c r="J14">
-        <v>0.07074526054550034</v>
+        <v>0.203593980983765</v>
       </c>
       <c r="K14">
-        <v>1.323100347020841</v>
+        <v>0.5016440042607542</v>
       </c>
       <c r="L14">
-        <v>0.2648146567225922</v>
+        <v>0.3647215477187444</v>
       </c>
       <c r="M14">
-        <v>0.3361441083178605</v>
+        <v>0.2515163008748047</v>
       </c>
       <c r="N14">
-        <v>0.8832897138327623</v>
+        <v>2.194506482523745</v>
       </c>
       <c r="O14">
-        <v>2.146465960995585</v>
+        <v>4.528200043033962</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.482908124340526</v>
+        <v>0.7727944789657215</v>
       </c>
       <c r="C15">
-        <v>0.1201931955743873</v>
+        <v>0.09953858579152808</v>
       </c>
       <c r="D15">
-        <v>0.124599313571423</v>
+        <v>0.1565339028651493</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.8902247894218931</v>
+        <v>1.781115303732221</v>
       </c>
       <c r="G15">
-        <v>0.000811755524360469</v>
+        <v>0.002491432277470655</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4727001630402867</v>
+        <v>1.125542970836939</v>
       </c>
       <c r="J15">
-        <v>0.07089421354471881</v>
+        <v>0.2037111595563861</v>
       </c>
       <c r="K15">
-        <v>1.3085337892783</v>
+        <v>0.4974499054124522</v>
       </c>
       <c r="L15">
-        <v>0.2627595165893695</v>
+        <v>0.3643364839078487</v>
       </c>
       <c r="M15">
-        <v>0.3326816878785124</v>
+        <v>0.2506378823384807</v>
       </c>
       <c r="N15">
-        <v>0.8881677165262118</v>
+        <v>2.19660472490507</v>
       </c>
       <c r="O15">
-        <v>2.141955980728596</v>
+        <v>4.52988387617566</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.389584529973433</v>
+        <v>0.7471328619061239</v>
       </c>
       <c r="C16">
-        <v>0.1158604072212341</v>
+        <v>0.09810234043085586</v>
       </c>
       <c r="D16">
-        <v>0.118508959472706</v>
+        <v>0.1552363502835732</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.87459181129217</v>
+        <v>1.783345393282509</v>
       </c>
       <c r="G16">
-        <v>0.0008139988820945465</v>
+        <v>0.002492822950124586</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4725520066808784</v>
+        <v>1.129396990871271</v>
       </c>
       <c r="J16">
-        <v>0.07176889486975391</v>
+        <v>0.2043964249420451</v>
       </c>
       <c r="K16">
-        <v>1.225192538634104</v>
+        <v>0.4734317796866776</v>
       </c>
       <c r="L16">
-        <v>0.2510547795355222</v>
+        <v>0.3621663894174958</v>
       </c>
       <c r="M16">
-        <v>0.3128992975268261</v>
+        <v>0.2456274191682084</v>
       </c>
       <c r="N16">
-        <v>0.916510990334489</v>
+        <v>2.208810571815289</v>
       </c>
       <c r="O16">
-        <v>2.117367368911658</v>
+        <v>4.540090207496775</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.332492939567231</v>
+        <v>0.7314400838702966</v>
       </c>
       <c r="C17">
-        <v>0.113204728158145</v>
+        <v>0.09721698969304526</v>
       </c>
       <c r="D17">
-        <v>0.1147945339885723</v>
+        <v>0.1544532765958309</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.8654067877799534</v>
+        <v>1.784904383434814</v>
       </c>
       <c r="G17">
-        <v>0.0008153919702593232</v>
+        <v>0.002493695694678392</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4726962457008383</v>
+        <v>1.131875265850475</v>
       </c>
       <c r="J17">
-        <v>0.07232409896553449</v>
+        <v>0.2048291082449651</v>
       </c>
       <c r="K17">
-        <v>1.174175708732179</v>
+        <v>0.4587126814703595</v>
       </c>
       <c r="L17">
-        <v>0.2439368908330692</v>
+        <v>0.3608678226775481</v>
       </c>
       <c r="M17">
-        <v>0.3008139181466802</v>
+        <v>0.2425746757955238</v>
       </c>
       <c r="N17">
-        <v>0.9342405263223736</v>
+        <v>2.216460591664903</v>
       </c>
       <c r="O17">
-        <v>2.103374578149641</v>
+        <v>4.546848802968753</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.299710001893601</v>
+        <v>0.722432546083553</v>
       </c>
       <c r="C18">
-        <v>0.1116778977388506</v>
+        <v>0.09670619893850585</v>
       </c>
       <c r="D18">
-        <v>0.1126658376543759</v>
+        <v>0.1540076485755719</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8602685316045111</v>
+        <v>1.785871305650701</v>
       </c>
       <c r="G18">
-        <v>0.0008161995346526039</v>
+        <v>0.002494204897380576</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.472863461040788</v>
+        <v>1.133342613851539</v>
       </c>
       <c r="J18">
-        <v>0.07265019903202408</v>
+        <v>0.205082500548766</v>
       </c>
       <c r="K18">
-        <v>1.144869217528992</v>
+        <v>0.4502524329974165</v>
       </c>
       <c r="L18">
-        <v>0.2398650755236673</v>
+        <v>0.3601329845587031</v>
       </c>
       <c r="M18">
-        <v>0.293880319392116</v>
+        <v>0.2408265943347558</v>
       </c>
       <c r="N18">
-        <v>0.9445615355665045</v>
+        <v>2.22092027142791</v>
       </c>
       <c r="O18">
-        <v>2.095716010605685</v>
+        <v>4.55091907943708</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.288619280532913</v>
+        <v>0.7193859538605238</v>
       </c>
       <c r="C19">
-        <v>0.1111610302023038</v>
+        <v>0.0965329864677642</v>
       </c>
       <c r="D19">
-        <v>0.1119464022659713</v>
+        <v>0.153857588872981</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8585532715315196</v>
+        <v>1.786210758604597</v>
       </c>
       <c r="G19">
-        <v>0.0008164740530122868</v>
+        <v>0.002494378546694071</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4729343476582741</v>
+        <v>1.133846633605671</v>
       </c>
       <c r="J19">
-        <v>0.07276176476226937</v>
+        <v>0.2051690724423185</v>
       </c>
       <c r="K19">
-        <v>1.134952580456456</v>
+        <v>0.4473889498219989</v>
       </c>
       <c r="L19">
-        <v>0.2384901689744368</v>
+        <v>0.3598862566554857</v>
       </c>
       <c r="M19">
-        <v>0.2915356546282837</v>
+        <v>0.2402360645500892</v>
       </c>
       <c r="N19">
-        <v>0.9480770518668546</v>
+        <v>2.22244047802217</v>
       </c>
       <c r="O19">
-        <v>2.093188826100118</v>
+        <v>4.552328633528191</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.338564694842546</v>
+        <v>0.7331086940614</v>
       </c>
       <c r="C20">
-        <v>0.1134873581019349</v>
+        <v>0.09731139841007774</v>
       </c>
       <c r="D20">
-        <v>0.1151891335196069</v>
+        <v>0.1545361424132352</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8663694769288384</v>
+        <v>1.78473115921097</v>
       </c>
       <c r="G20">
-        <v>0.0008152430241355436</v>
+        <v>0.002493602042223139</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4726721235153519</v>
+        <v>1.131607112428959</v>
       </c>
       <c r="J20">
-        <v>0.0722642949947101</v>
+        <v>0.2047825802520027</v>
       </c>
       <c r="K20">
-        <v>1.179602626256923</v>
+        <v>0.4602789597958576</v>
       </c>
       <c r="L20">
-        <v>0.2446922863642129</v>
+        <v>0.3610048097413028</v>
       </c>
       <c r="M20">
-        <v>0.3020985854934324</v>
+        <v>0.2428988419783664</v>
       </c>
       <c r="N20">
-        <v>0.9323403620150534</v>
+        <v>2.215640066790173</v>
       </c>
       <c r="O20">
-        <v>2.104823547288674</v>
+        <v>4.5461104114774</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.507055028165297</v>
+        <v>0.7794350069207781</v>
       </c>
       <c r="C21">
-        <v>0.1213127435796366</v>
+        <v>0.09990807447642425</v>
       </c>
       <c r="D21">
-        <v>0.126178692755289</v>
+        <v>0.1568728854041979</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8943897426140737</v>
+        <v>1.780598495712908</v>
       </c>
       <c r="G21">
-        <v>0.0008111814624733656</v>
+        <v>0.002491079283590679</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4728129050395466</v>
+        <v>1.124583145323165</v>
       </c>
       <c r="J21">
-        <v>0.07067420957359971</v>
+        <v>0.2035380339122863</v>
       </c>
       <c r="K21">
-        <v>1.330087904545366</v>
+        <v>0.5036554749646882</v>
       </c>
       <c r="L21">
-        <v>0.2658014631124104</v>
+        <v>0.3649068414074179</v>
       </c>
       <c r="M21">
-        <v>0.3378055182645667</v>
+        <v>0.2519379384364342</v>
       </c>
       <c r="N21">
-        <v>0.8809575480499933</v>
+        <v>2.193503531549509</v>
       </c>
       <c r="O21">
-        <v>2.148651264193632</v>
+        <v>4.527402446608988</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.617745582588725</v>
+        <v>0.8098719850978569</v>
       </c>
       <c r="C22">
-        <v>0.1264375639953812</v>
+        <v>0.1015911426395206</v>
       </c>
       <c r="D22">
-        <v>0.1334358543510774</v>
+        <v>0.1584421272414431</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.9140829767746936</v>
+        <v>1.778521351095648</v>
       </c>
       <c r="G22">
-        <v>0.0008085808927407442</v>
+        <v>0.002489494501524108</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4737019532976916</v>
+        <v>1.1203651334732</v>
       </c>
       <c r="J22">
-        <v>0.06969693302568913</v>
+        <v>0.2027648149599983</v>
       </c>
       <c r="K22">
-        <v>1.428844840369123</v>
+        <v>0.5320521317641749</v>
       </c>
       <c r="L22">
-        <v>0.2798125305298811</v>
+        <v>0.3675636129542994</v>
       </c>
       <c r="M22">
-        <v>0.3613195377253788</v>
+        <v>0.2579136183503579</v>
       </c>
       <c r="N22">
-        <v>0.8485225292114001</v>
+        <v>2.179566486241347</v>
       </c>
       <c r="O22">
-        <v>2.181013434460482</v>
+        <v>4.516801547006338</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.558611254298654</v>
+        <v>0.7936127931784824</v>
       </c>
       <c r="C23">
-        <v>0.1237011521925098</v>
+        <v>0.100694144922727</v>
       </c>
       <c r="D23">
-        <v>0.1295554261213283</v>
+        <v>0.1576007693289085</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.9034414263011143</v>
+        <v>1.779572963871999</v>
       </c>
       <c r="G23">
-        <v>0.0008099640431124003</v>
+        <v>0.002490334490944553</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4731521757387185</v>
+        <v>1.122582307959199</v>
       </c>
       <c r="J23">
-        <v>0.07021277038258411</v>
+        <v>0.2031738274534955</v>
       </c>
       <c r="K23">
-        <v>1.376095402259239</v>
+        <v>0.5168921374004185</v>
       </c>
       <c r="L23">
-        <v>0.2723140211741963</v>
+        <v>0.3661359342376471</v>
       </c>
       <c r="M23">
-        <v>0.3487523767555487</v>
+        <v>0.2547181085891381</v>
       </c>
       <c r="N23">
-        <v>0.8657264208622578</v>
+        <v>2.1869564210543</v>
       </c>
       <c r="O23">
-        <v>2.163388471699335</v>
+        <v>4.5223108258038</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.335819531312296</v>
+        <v>0.7323542703302337</v>
       </c>
       <c r="C24">
-        <v>0.1133595812956258</v>
+        <v>0.09726872180635837</v>
       </c>
       <c r="D24">
-        <v>0.1150107140289265</v>
+        <v>0.1544986645333069</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.8659338028138137</v>
+        <v>1.784809253833373</v>
       </c>
       <c r="G24">
-        <v>0.0008153103418816363</v>
+        <v>0.002493644359244671</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4726827671177141</v>
+        <v>1.131728212029024</v>
       </c>
       <c r="J24">
-        <v>0.07229131087867913</v>
+        <v>0.2048036011124612</v>
       </c>
       <c r="K24">
-        <v>1.177149043650161</v>
+        <v>0.4595708392248241</v>
       </c>
       <c r="L24">
-        <v>0.2443507088345029</v>
+        <v>0.3609428413580957</v>
       </c>
       <c r="M24">
-        <v>0.3015177426129583</v>
+        <v>0.2427522646885549</v>
       </c>
       <c r="N24">
-        <v>0.9331990279255472</v>
+        <v>2.216010834260846</v>
       </c>
       <c r="O24">
-        <v>2.104167268496184</v>
+        <v>4.546443663004226</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.097547005801488</v>
+        <v>0.6669882846802295</v>
       </c>
       <c r="C25">
-        <v>0.1022268632609311</v>
+        <v>0.09351424480223614</v>
       </c>
       <c r="D25">
-        <v>0.09961481289546725</v>
+        <v>0.1513353776231554</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8309615837089694</v>
+        <v>1.793143495846685</v>
       </c>
       <c r="G25">
-        <v>0.0008213190963989224</v>
+        <v>0.002497490955072821</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4753734350341006</v>
+        <v>1.143196238331925</v>
       </c>
       <c r="J25">
-        <v>0.07479095557918392</v>
+        <v>0.2067346278129296</v>
       </c>
       <c r="K25">
-        <v>0.9639300277312941</v>
+        <v>0.3979639049454988</v>
       </c>
       <c r="L25">
-        <v>0.2150277514421006</v>
+        <v>0.3558029235170608</v>
       </c>
       <c r="M25">
-        <v>0.2512293216772186</v>
+        <v>0.2301430673554172</v>
       </c>
       <c r="N25">
-        <v>1.010674630758195</v>
+        <v>2.249629205051815</v>
       </c>
       <c r="O25">
-        <v>2.055059573158303</v>
+        <v>4.579469625915635</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_167/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_167/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.619485959373236</v>
+        <v>0.9234032968008705</v>
       </c>
       <c r="C2">
-        <v>0.09069855557737583</v>
+        <v>0.09402449169814275</v>
       </c>
       <c r="D2">
-        <v>0.1491654049089064</v>
+        <v>0.08849876193558259</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.801598618548695</v>
+        <v>0.8094685938808794</v>
       </c>
       <c r="G2">
-        <v>0.002500563224173716</v>
+        <v>0.0008259631634144036</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.153023016269959</v>
+        <v>0.4798718301569025</v>
       </c>
       <c r="J2">
-        <v>0.2083061825638381</v>
+        <v>0.0768446786706054</v>
       </c>
       <c r="K2">
-        <v>0.3528051124800982</v>
+        <v>0.8077115899424712</v>
       </c>
       <c r="L2">
-        <v>0.3524188657653013</v>
+        <v>0.194069139664613</v>
       </c>
       <c r="M2">
-        <v>0.2211188423881261</v>
+        <v>0.2146600016732023</v>
       </c>
       <c r="N2">
-        <v>2.276347613085551</v>
+        <v>1.071535195588752</v>
       </c>
       <c r="O2">
-        <v>4.609819826082216</v>
+        <v>2.030368594478972</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5876922403889466</v>
+        <v>0.8059810212441505</v>
       </c>
       <c r="C3">
-        <v>0.0887583739399318</v>
+        <v>0.08845124465713639</v>
       </c>
       <c r="D3">
-        <v>0.1477950874944653</v>
+        <v>0.0810876978777344</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.808779613223273</v>
+        <v>0.7973443789023023</v>
       </c>
       <c r="G3">
-        <v>0.002502796250086051</v>
+        <v>0.000829253172437816</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.160547714366068</v>
+        <v>0.4843828854337531</v>
       </c>
       <c r="J3">
-        <v>0.2094651149657025</v>
+        <v>0.07836564230741772</v>
       </c>
       <c r="K3">
-        <v>0.3223325274280882</v>
+        <v>0.7021365302748848</v>
       </c>
       <c r="L3">
-        <v>0.35037708125531</v>
+        <v>0.1802175673353759</v>
       </c>
       <c r="M3">
-        <v>0.2151671942734552</v>
+        <v>0.1901111975456473</v>
       </c>
       <c r="N3">
-        <v>2.295683721917147</v>
+        <v>1.115057524742761</v>
       </c>
       <c r="O3">
-        <v>4.634161229765127</v>
+        <v>2.020215354061548</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5683709396231222</v>
+        <v>0.7341137515051628</v>
       </c>
       <c r="C4">
-        <v>0.08755136306289302</v>
+        <v>0.08501883854899717</v>
       </c>
       <c r="D4">
-        <v>0.1470035556509188</v>
+        <v>0.07659314992833544</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.813906038728213</v>
+        <v>0.7910383249331971</v>
       </c>
       <c r="G4">
-        <v>0.002504242168618801</v>
+        <v>0.0008313453571079386</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.165595371170586</v>
+        <v>0.4878405374798334</v>
       </c>
       <c r="J4">
-        <v>0.2102231605698091</v>
+        <v>0.07936199523013521</v>
       </c>
       <c r="K4">
-        <v>0.3036897731737866</v>
+        <v>0.6374025276924584</v>
       </c>
       <c r="L4">
-        <v>0.3492482129446373</v>
+        <v>0.1718736192493253</v>
       </c>
       <c r="M4">
-        <v>0.2115946288077915</v>
+        <v>0.1751383702011218</v>
       </c>
       <c r="N4">
-        <v>2.308163128610709</v>
+        <v>1.142870800954512</v>
       </c>
       <c r="O4">
-        <v>4.650971166881789</v>
+        <v>2.017049412639949</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5605483650709573</v>
+        <v>0.7048767580505171</v>
       </c>
       <c r="C5">
-        <v>0.08705555395837905</v>
+        <v>0.08361705105652817</v>
       </c>
       <c r="D5">
-        <v>0.1466936029045627</v>
+        <v>0.07477503524139451</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.816175730158925</v>
+        <v>0.7887454852699491</v>
       </c>
       <c r="G5">
-        <v>0.002504850263501684</v>
+        <v>0.0008322163105396288</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.167759940809368</v>
+        <v>0.4894177687724763</v>
       </c>
       <c r="J5">
-        <v>0.2105437733832449</v>
+        <v>0.07978354967115919</v>
       </c>
       <c r="K5">
-        <v>0.2961102080454054</v>
+        <v>0.6110379469627105</v>
       </c>
       <c r="L5">
-        <v>0.3488196942886432</v>
+        <v>0.1685121281432984</v>
       </c>
       <c r="M5">
-        <v>0.2101594984335122</v>
+        <v>0.169059957227681</v>
       </c>
       <c r="N5">
-        <v>2.313401299059919</v>
+        <v>1.15447436534471</v>
       </c>
       <c r="O5">
-        <v>4.658290658340931</v>
+        <v>2.016505762546743</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5592525334811</v>
+        <v>0.7000247284993577</v>
       </c>
       <c r="C6">
-        <v>0.08697298751869198</v>
+        <v>0.08338408858894297</v>
       </c>
       <c r="D6">
-        <v>0.1466428986729795</v>
+        <v>0.07447393401171354</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.816563528299369</v>
+        <v>0.7883812223816875</v>
       </c>
       <c r="G6">
-        <v>0.002504952378466118</v>
+        <v>0.0008323620481270584</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.168125868763269</v>
+        <v>0.4896896910051112</v>
       </c>
       <c r="J6">
-        <v>0.2105977183587164</v>
+        <v>0.07985448153450747</v>
       </c>
       <c r="K6">
-        <v>0.2948526999811492</v>
+        <v>0.6066608268836546</v>
       </c>
       <c r="L6">
-        <v>0.3487504455074131</v>
+        <v>0.1679562451834187</v>
       </c>
       <c r="M6">
-        <v>0.2099224521309146</v>
+        <v>0.1680519801443658</v>
       </c>
       <c r="N6">
-        <v>2.314280319209606</v>
+        <v>1.156417265871567</v>
       </c>
       <c r="O6">
-        <v>4.659534414916635</v>
+        <v>2.016459864972774</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5682652342013625</v>
+        <v>0.7337192616171251</v>
       </c>
       <c r="C7">
-        <v>0.08754469235300633</v>
+        <v>0.08499994647679898</v>
       </c>
       <c r="D7">
-        <v>0.1469993244001486</v>
+        <v>0.07656857651239335</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.813935916853282</v>
+        <v>0.7910062936200006</v>
       </c>
       <c r="G7">
-        <v>0.002504250293364629</v>
+        <v>0.0008313570284869121</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.165624127451775</v>
+        <v>0.4878611336334089</v>
       </c>
       <c r="J7">
-        <v>0.2102274370527972</v>
+        <v>0.07936761779907542</v>
       </c>
       <c r="K7">
-        <v>0.303587480918992</v>
+        <v>0.6370469143744657</v>
       </c>
       <c r="L7">
-        <v>0.3492423060680494</v>
+        <v>0.1718281304119103</v>
       </c>
       <c r="M7">
-        <v>0.2115751900384168</v>
+        <v>0.1750563035851762</v>
       </c>
       <c r="N7">
-        <v>2.308233153972836</v>
+        <v>1.143026205909141</v>
       </c>
       <c r="O7">
-        <v>4.651067979194977</v>
+        <v>2.017039090529721</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6084823353615718</v>
+        <v>0.8828630042526413</v>
       </c>
       <c r="C8">
-        <v>0.09003285358934932</v>
+        <v>0.09210472430521577</v>
       </c>
       <c r="D8">
-        <v>0.1486826135361383</v>
+        <v>0.08593145817459202</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.803925916738237</v>
+        <v>0.8050461950441488</v>
       </c>
       <c r="G8">
-        <v>0.002501317672915834</v>
+        <v>0.0008270827400961855</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.15552888422603</v>
+        <v>0.4812815565852731</v>
       </c>
       <c r="J8">
-        <v>0.2086961532299636</v>
+        <v>0.07735603159657778</v>
       </c>
       <c r="K8">
-        <v>0.3422844540802146</v>
+        <v>0.7712860930255374</v>
       </c>
       <c r="L8">
-        <v>0.3516890299078952</v>
+        <v>0.1892586301232129</v>
       </c>
       <c r="M8">
-        <v>0.2190498347038528</v>
+        <v>0.2061734855385779</v>
       </c>
       <c r="N8">
-        <v>2.282888783074839</v>
+        <v>1.086312465800087</v>
       </c>
       <c r="O8">
-        <v>4.617826140831298</v>
+        <v>2.026215551718238</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6889106853717522</v>
+        <v>1.177578750954382</v>
       </c>
       <c r="C9">
-        <v>0.09478691498058822</v>
+        <v>0.1059762188261928</v>
       </c>
       <c r="D9">
-        <v>0.1523763472453226</v>
+        <v>0.1047647372617746</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.789976499123846</v>
+        <v>0.8420511137858782</v>
       </c>
       <c r="G9">
-        <v>0.00249615809243882</v>
+        <v>0.0008192616491309812</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.139118698466724</v>
+        <v>0.4740610934677001</v>
       </c>
       <c r="J9">
-        <v>0.206060957546061</v>
+        <v>0.07391528349940657</v>
       </c>
       <c r="K9">
-        <v>0.4186856442145199</v>
+        <v>1.035606852463445</v>
       </c>
       <c r="L9">
-        <v>0.3574723452828721</v>
+        <v>0.2248012877373071</v>
       </c>
       <c r="M9">
-        <v>0.2343503896424295</v>
+        <v>0.2680908260173069</v>
       </c>
       <c r="N9">
-        <v>2.237999878492863</v>
+        <v>0.9839697567715466</v>
       </c>
       <c r="O9">
-        <v>4.567408758084923</v>
+        <v>2.069740769762376</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7489260113912337</v>
+        <v>1.39610676394571</v>
       </c>
       <c r="C10">
-        <v>0.09820315327866069</v>
+        <v>0.1161635416794198</v>
       </c>
       <c r="D10">
-        <v>0.155326349873647</v>
+        <v>0.1189338699783491</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.783177012834152</v>
+        <v>0.8756598001180294</v>
       </c>
       <c r="G10">
-        <v>0.002492724341353378</v>
+        <v>0.0008138407670792102</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.12911987915718</v>
+        <v>0.4725471192405948</v>
       </c>
       <c r="J10">
-        <v>0.2043476653991672</v>
+        <v>0.07170646413208992</v>
       </c>
       <c r="K10">
-        <v>0.4751121020126448</v>
+        <v>1.231019184141701</v>
       </c>
       <c r="L10">
-        <v>0.362316196603544</v>
+        <v>0.2518700461829013</v>
       </c>
       <c r="M10">
-        <v>0.245976808205171</v>
+        <v>0.3142807758508468</v>
       </c>
       <c r="N10">
-        <v>2.207945725375679</v>
+        <v>0.9145048112235314</v>
       </c>
       <c r="O10">
-        <v>4.539343779647453</v>
+        <v>2.119017670413797</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7764237197652335</v>
+        <v>1.496105115570543</v>
       </c>
       <c r="C11">
-        <v>0.09974062824685603</v>
+        <v>0.1208051356219499</v>
       </c>
       <c r="D11">
-        <v>0.1567190096524484</v>
+        <v>0.1254623170546409</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.780829903873538</v>
+        <v>0.8924950898995618</v>
       </c>
       <c r="G11">
-        <v>0.002491239020161141</v>
+        <v>0.0008114414697469493</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.125016564222634</v>
+        <v>0.472758080905173</v>
       </c>
       <c r="J11">
-        <v>0.20361633589728</v>
+        <v>0.07077366271270513</v>
       </c>
       <c r="K11">
-        <v>0.5008419014133949</v>
+        <v>1.320314231648098</v>
       </c>
       <c r="L11">
-        <v>0.3646477705708406</v>
+        <v>0.2644213648504206</v>
       </c>
       <c r="M11">
-        <v>0.2513482301929386</v>
+        <v>0.3354817508525585</v>
       </c>
       <c r="N11">
-        <v>2.194907027728824</v>
+        <v>0.8842210142888174</v>
       </c>
       <c r="O11">
-        <v>4.528519889103137</v>
+        <v>2.145598569291053</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7868640227364949</v>
+        <v>1.534069428316911</v>
       </c>
       <c r="C12">
-        <v>0.1003204344352042</v>
+        <v>0.1225645430858719</v>
       </c>
       <c r="D12">
-        <v>0.1572535986579737</v>
+        <v>0.1279472652895493</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.780048142751909</v>
+        <v>0.8991059123397918</v>
       </c>
       <c r="G12">
-        <v>0.002490687542815861</v>
+        <v>0.0008105421816752817</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.123526652306893</v>
+        <v>0.472974119593168</v>
       </c>
       <c r="J12">
-        <v>0.2033462893813933</v>
+        <v>0.07043103537127671</v>
       </c>
       <c r="K12">
-        <v>0.5105934298878765</v>
+        <v>1.354197028882766</v>
       </c>
       <c r="L12">
-        <v>0.365548980140602</v>
+        <v>0.2692109447139757</v>
       </c>
       <c r="M12">
-        <v>0.2533939691506291</v>
+        <v>0.343540283784094</v>
       </c>
       <c r="N12">
-        <v>2.190060565111287</v>
+        <v>0.8729493187861284</v>
       </c>
       <c r="O12">
-        <v>4.524700084490632</v>
+        <v>2.156298953668255</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7846143044602059</v>
+        <v>1.525888608718873</v>
       </c>
       <c r="C13">
-        <v>0.1001956699056024</v>
+        <v>0.1221855345230836</v>
       </c>
       <c r="D13">
-        <v>0.1571381453995997</v>
+        <v>0.1274115052544857</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.780211752228567</v>
+        <v>0.8976714523250138</v>
       </c>
       <c r="G13">
-        <v>0.002490805825757518</v>
+        <v>0.0008107354522070093</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.123844689942949</v>
+        <v>0.4729214241215942</v>
       </c>
       <c r="J13">
-        <v>0.2034041424919781</v>
+        <v>0.07050435053534088</v>
       </c>
       <c r="K13">
-        <v>0.508492907727117</v>
+        <v>1.346896523017108</v>
       </c>
       <c r="L13">
-        <v>0.3653540769326753</v>
+        <v>0.2681777507282703</v>
       </c>
       <c r="M13">
-        <v>0.2529528650380186</v>
+        <v>0.3418033420132289</v>
       </c>
       <c r="N13">
-        <v>2.191100290309709</v>
+        <v>0.8753680440222871</v>
       </c>
       <c r="O13">
-        <v>4.525510347501069</v>
+        <v>2.153965607305196</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7772821024611289</v>
+        <v>1.499226442136802</v>
       </c>
       <c r="C14">
-        <v>0.09978837749257963</v>
+        <v>0.1209498442258834</v>
       </c>
       <c r="D14">
-        <v>0.1567628463339616</v>
+        <v>0.1256664942943928</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.78076344407215</v>
+        <v>0.8930341643129367</v>
       </c>
       <c r="G14">
-        <v>0.002491193430079737</v>
+        <v>0.0008113673007756612</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.124892707672771</v>
+        <v>0.4727730855765486</v>
       </c>
       <c r="J14">
-        <v>0.203593980983765</v>
+        <v>0.07074526054550212</v>
       </c>
       <c r="K14">
-        <v>0.5016440042607542</v>
+        <v>1.323100347020841</v>
       </c>
       <c r="L14">
-        <v>0.3647215477187444</v>
+        <v>0.264814656722578</v>
       </c>
       <c r="M14">
-        <v>0.2515163008748047</v>
+        <v>0.3361441083178676</v>
       </c>
       <c r="N14">
-        <v>2.194506482523745</v>
+        <v>0.8832897138327768</v>
       </c>
       <c r="O14">
-        <v>4.528200043033962</v>
+        <v>2.14646596099567</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7727944789657215</v>
+        <v>1.482908124340412</v>
       </c>
       <c r="C15">
-        <v>0.09953858579152808</v>
+        <v>0.120193195574295</v>
       </c>
       <c r="D15">
-        <v>0.1565339028651493</v>
+        <v>0.1245993135716503</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.781115303732221</v>
+        <v>0.8902247894219002</v>
       </c>
       <c r="G15">
-        <v>0.002491432277470655</v>
+        <v>0.0008117555243609322</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.125542970836939</v>
+        <v>0.4727001630402938</v>
       </c>
       <c r="J15">
-        <v>0.2037111595563861</v>
+        <v>0.07089421354481829</v>
       </c>
       <c r="K15">
-        <v>0.4974499054124522</v>
+        <v>1.3085337892783</v>
       </c>
       <c r="L15">
-        <v>0.3643364839078487</v>
+        <v>0.2627595165894263</v>
       </c>
       <c r="M15">
-        <v>0.2506378823384807</v>
+        <v>0.3326816878785266</v>
       </c>
       <c r="N15">
-        <v>2.19660472490507</v>
+        <v>0.8881677165262163</v>
       </c>
       <c r="O15">
-        <v>4.52988387617566</v>
+        <v>2.141955980728596</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7471328619061239</v>
+        <v>1.389584529973519</v>
       </c>
       <c r="C16">
-        <v>0.09810234043085586</v>
+        <v>0.1158604072211418</v>
       </c>
       <c r="D16">
-        <v>0.1552363502835732</v>
+        <v>0.1185089594725781</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.783345393282509</v>
+        <v>0.8745918112921558</v>
       </c>
       <c r="G16">
-        <v>0.002492822950124586</v>
+        <v>0.0008139988820453863</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.129396990871271</v>
+        <v>0.4725520066808713</v>
       </c>
       <c r="J16">
-        <v>0.2043964249420451</v>
+        <v>0.07176889486975035</v>
       </c>
       <c r="K16">
-        <v>0.4734317796866776</v>
+        <v>1.225192538634076</v>
       </c>
       <c r="L16">
-        <v>0.3621663894174958</v>
+        <v>0.2510547795356217</v>
       </c>
       <c r="M16">
-        <v>0.2456274191682084</v>
+        <v>0.3128992975268261</v>
       </c>
       <c r="N16">
-        <v>2.208810571815289</v>
+        <v>0.9165109903344659</v>
       </c>
       <c r="O16">
-        <v>4.540090207496775</v>
+        <v>2.117367368911601</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7314400838702966</v>
+        <v>1.332492939567118</v>
       </c>
       <c r="C17">
-        <v>0.09721698969304526</v>
+        <v>0.113204728158145</v>
       </c>
       <c r="D17">
-        <v>0.1544532765958309</v>
+        <v>0.1147945339882739</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.784904383434814</v>
+        <v>0.8654067877799605</v>
       </c>
       <c r="G17">
-        <v>0.002493695694678392</v>
+        <v>0.0008153919702354176</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.131875265850475</v>
+        <v>0.4726962457008419</v>
       </c>
       <c r="J17">
-        <v>0.2048291082449651</v>
+        <v>0.07232409896553982</v>
       </c>
       <c r="K17">
-        <v>0.4587126814703595</v>
+        <v>1.174175708732122</v>
       </c>
       <c r="L17">
-        <v>0.3608678226775481</v>
+        <v>0.243936890833055</v>
       </c>
       <c r="M17">
-        <v>0.2425746757955238</v>
+        <v>0.3008139181466731</v>
       </c>
       <c r="N17">
-        <v>2.216460591664903</v>
+        <v>0.9342405263223796</v>
       </c>
       <c r="O17">
-        <v>4.546848802968753</v>
+        <v>2.103374578149584</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.722432546083553</v>
+        <v>1.299710001893516</v>
       </c>
       <c r="C18">
-        <v>0.09670619893850585</v>
+        <v>0.1116778977389998</v>
       </c>
       <c r="D18">
-        <v>0.1540076485755719</v>
+        <v>0.1126658376541911</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.785871305650701</v>
+        <v>0.8602685316045111</v>
       </c>
       <c r="G18">
-        <v>0.002494204897380576</v>
+        <v>0.0008161995345943847</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.133342613851539</v>
+        <v>0.472863461040788</v>
       </c>
       <c r="J18">
-        <v>0.205082500548766</v>
+        <v>0.07265019903193171</v>
       </c>
       <c r="K18">
-        <v>0.4502524329974165</v>
+        <v>1.144869217528935</v>
       </c>
       <c r="L18">
-        <v>0.3601329845587031</v>
+        <v>0.2398650755237668</v>
       </c>
       <c r="M18">
-        <v>0.2408265943347558</v>
+        <v>0.2938803193921089</v>
       </c>
       <c r="N18">
-        <v>2.22092027142791</v>
+        <v>0.9445615355664762</v>
       </c>
       <c r="O18">
-        <v>4.55091907943708</v>
+        <v>2.095716010605628</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7193859538605238</v>
+        <v>1.288619280532799</v>
       </c>
       <c r="C19">
-        <v>0.0965329864677642</v>
+        <v>0.1111610302018278</v>
       </c>
       <c r="D19">
-        <v>0.153857588872981</v>
+        <v>0.1119464022659713</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.786210758604597</v>
+        <v>0.8585532715314983</v>
       </c>
       <c r="G19">
-        <v>0.002494378546694071</v>
+        <v>0.0008164740530128833</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.133846633605671</v>
+        <v>0.4729343476582777</v>
       </c>
       <c r="J19">
-        <v>0.2051690724423185</v>
+        <v>0.07276176476227469</v>
       </c>
       <c r="K19">
-        <v>0.4473889498219989</v>
+        <v>1.134952580456371</v>
       </c>
       <c r="L19">
-        <v>0.3598862566554857</v>
+        <v>0.2384901689745647</v>
       </c>
       <c r="M19">
-        <v>0.2402360645500892</v>
+        <v>0.2915356546282837</v>
       </c>
       <c r="N19">
-        <v>2.22244047802217</v>
+        <v>0.9480770518668566</v>
       </c>
       <c r="O19">
-        <v>4.552328633528191</v>
+        <v>2.093188826100118</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7331086940614</v>
+        <v>1.338564694842518</v>
       </c>
       <c r="C20">
-        <v>0.09731139841007774</v>
+        <v>0.1134873581015867</v>
       </c>
       <c r="D20">
-        <v>0.1545361424132352</v>
+        <v>0.1151891335195927</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.78473115921097</v>
+        <v>0.8663694769288597</v>
       </c>
       <c r="G20">
-        <v>0.002493602042223139</v>
+        <v>0.0008152430241391658</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.131607112428959</v>
+        <v>0.4726721235153697</v>
       </c>
       <c r="J20">
-        <v>0.2047825802520027</v>
+        <v>0.07226429499474563</v>
       </c>
       <c r="K20">
-        <v>0.4602789597958576</v>
+        <v>1.179602626256951</v>
       </c>
       <c r="L20">
-        <v>0.3610048097413028</v>
+        <v>0.2446922863641134</v>
       </c>
       <c r="M20">
-        <v>0.2428988419783664</v>
+        <v>0.3020985854934253</v>
       </c>
       <c r="N20">
-        <v>2.215640066790173</v>
+        <v>0.9323403620150434</v>
       </c>
       <c r="O20">
-        <v>4.5461104114774</v>
+        <v>2.104823547288674</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7794350069207781</v>
+        <v>1.507055028165183</v>
       </c>
       <c r="C21">
-        <v>0.09990807447642425</v>
+        <v>0.1213127435799777</v>
       </c>
       <c r="D21">
-        <v>0.1568728854041979</v>
+        <v>0.1261786927552322</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.780598495712908</v>
+        <v>0.8943897426140879</v>
       </c>
       <c r="G21">
-        <v>0.002491079283590679</v>
+        <v>0.0008111814624696893</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.124583145323165</v>
+        <v>0.4728129050395538</v>
       </c>
       <c r="J21">
-        <v>0.2035380339122863</v>
+        <v>0.07067420957361215</v>
       </c>
       <c r="K21">
-        <v>0.5036554749646882</v>
+        <v>1.330087904545252</v>
       </c>
       <c r="L21">
-        <v>0.3649068414074179</v>
+        <v>0.2658014631123677</v>
       </c>
       <c r="M21">
-        <v>0.2519379384364342</v>
+        <v>0.3378055182645738</v>
       </c>
       <c r="N21">
-        <v>2.193503531549509</v>
+        <v>0.8809575480500629</v>
       </c>
       <c r="O21">
-        <v>4.527402446608988</v>
+        <v>2.148651264193546</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8098719850978569</v>
+        <v>1.617745582588896</v>
       </c>
       <c r="C22">
-        <v>0.1015911426395206</v>
+        <v>0.1264375639957223</v>
       </c>
       <c r="D22">
-        <v>0.1584421272414431</v>
+        <v>0.1334358543508358</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.778521351095648</v>
+        <v>0.9140829767746936</v>
       </c>
       <c r="G22">
-        <v>0.002489494501524108</v>
+        <v>0.0008085808927700213</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.1203651334732</v>
+        <v>0.4737019532976774</v>
       </c>
       <c r="J22">
-        <v>0.2027648149599983</v>
+        <v>0.06969693302571933</v>
       </c>
       <c r="K22">
-        <v>0.5320521317641749</v>
+        <v>1.428844840369152</v>
       </c>
       <c r="L22">
-        <v>0.3675636129542994</v>
+        <v>0.2798125305297674</v>
       </c>
       <c r="M22">
-        <v>0.2579136183503579</v>
+        <v>0.3613195377253859</v>
       </c>
       <c r="N22">
-        <v>2.179566486241347</v>
+        <v>0.8485225292114532</v>
       </c>
       <c r="O22">
-        <v>4.516801547006338</v>
+        <v>2.181013434460482</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7936127931784824</v>
+        <v>1.558611254298597</v>
       </c>
       <c r="C23">
-        <v>0.100694144922727</v>
+        <v>0.1237011521923677</v>
       </c>
       <c r="D23">
-        <v>0.1576007693289085</v>
+        <v>0.1295554261212288</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.779572963871999</v>
+        <v>0.9034414263011143</v>
       </c>
       <c r="G23">
-        <v>0.002490334490944553</v>
+        <v>0.0008099640430830301</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.122582307959199</v>
+        <v>0.4731521757387043</v>
       </c>
       <c r="J23">
-        <v>0.2031738274534955</v>
+        <v>0.07021277038249885</v>
       </c>
       <c r="K23">
-        <v>0.5168921374004185</v>
+        <v>1.376095402259267</v>
       </c>
       <c r="L23">
-        <v>0.3661359342376471</v>
+        <v>0.2723140211741679</v>
       </c>
       <c r="M23">
-        <v>0.2547181085891381</v>
+        <v>0.3487523767555629</v>
       </c>
       <c r="N23">
-        <v>2.1869564210543</v>
+        <v>0.8657264208621978</v>
       </c>
       <c r="O23">
-        <v>4.5223108258038</v>
+        <v>2.163388471699307</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7323542703302337</v>
+        <v>1.335819531312211</v>
       </c>
       <c r="C24">
-        <v>0.09726872180635837</v>
+        <v>0.1133595812956329</v>
       </c>
       <c r="D24">
-        <v>0.1544986645333069</v>
+        <v>0.1150107140289407</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.784809253833373</v>
+        <v>0.8659338028137853</v>
       </c>
       <c r="G24">
-        <v>0.002493644359244671</v>
+        <v>0.0008153103418821971</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.131728212029024</v>
+        <v>0.472682767117707</v>
       </c>
       <c r="J24">
-        <v>0.2048036011124612</v>
+        <v>0.07229131087868979</v>
       </c>
       <c r="K24">
-        <v>0.4595708392248241</v>
+        <v>1.177149043650189</v>
       </c>
       <c r="L24">
-        <v>0.3609428413580957</v>
+        <v>0.2443507088345314</v>
       </c>
       <c r="M24">
-        <v>0.2427522646885549</v>
+        <v>0.3015177426129512</v>
       </c>
       <c r="N24">
-        <v>2.216010834260846</v>
+        <v>0.9331990279255242</v>
       </c>
       <c r="O24">
-        <v>4.546443663004226</v>
+        <v>2.104167268496184</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6669882846802295</v>
+        <v>1.097547005801431</v>
       </c>
       <c r="C25">
-        <v>0.09351424480223614</v>
+        <v>0.1022268632609311</v>
       </c>
       <c r="D25">
-        <v>0.1513353776231554</v>
+        <v>0.0996148128954033</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.793143495846685</v>
+        <v>0.8309615837089552</v>
       </c>
       <c r="G25">
-        <v>0.002497490955072821</v>
+        <v>0.0008213190962807611</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.143196238331925</v>
+        <v>0.4753734350341006</v>
       </c>
       <c r="J25">
-        <v>0.2067346278129296</v>
+        <v>0.07479095557921411</v>
       </c>
       <c r="K25">
-        <v>0.3979639049454988</v>
+        <v>0.9639300277311804</v>
       </c>
       <c r="L25">
-        <v>0.3558029235170608</v>
+        <v>0.2150277514421362</v>
       </c>
       <c r="M25">
-        <v>0.2301430673554172</v>
+        <v>0.2512293216772186</v>
       </c>
       <c r="N25">
-        <v>2.249629205051815</v>
+        <v>1.010674630758196</v>
       </c>
       <c r="O25">
-        <v>4.579469625915635</v>
+        <v>2.055059573158275</v>
       </c>
     </row>
   </sheetData>
